--- a/Code/Results/Cases/Case_0_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_213/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.946851981161195</v>
+        <v>10.54512200968881</v>
       </c>
       <c r="D2">
-        <v>5.20710564829477</v>
+        <v>5.067007107086827</v>
       </c>
       <c r="E2">
-        <v>7.907929513057113</v>
+        <v>12.85918902245216</v>
       </c>
       <c r="F2">
-        <v>15.08974037626308</v>
+        <v>23.33821417090123</v>
       </c>
       <c r="G2">
-        <v>17.41470716919284</v>
+        <v>27.07302548811116</v>
       </c>
       <c r="H2">
-        <v>7.778218589928068</v>
+        <v>13.99644850093874</v>
       </c>
       <c r="I2">
-        <v>13.26117232793211</v>
+        <v>22.33477718897089</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.16584414408159</v>
+        <v>13.9089731205515</v>
       </c>
       <c r="L2">
-        <v>5.356458456473664</v>
+        <v>9.600923397982324</v>
       </c>
       <c r="M2">
-        <v>16.17940176036477</v>
+        <v>16.18939550126271</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.08566346853486</v>
+        <v>21.0559719092578</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.664085526901468</v>
+        <v>10.51544816081652</v>
       </c>
       <c r="D3">
-        <v>4.994823592766704</v>
+        <v>4.991445194677296</v>
       </c>
       <c r="E3">
-        <v>7.852483154314902</v>
+        <v>12.89147873705386</v>
       </c>
       <c r="F3">
-        <v>14.96909062730097</v>
+        <v>23.44567964130037</v>
       </c>
       <c r="G3">
-        <v>17.37640750955787</v>
+        <v>27.26150722008892</v>
       </c>
       <c r="H3">
-        <v>7.90668905391813</v>
+        <v>14.0647691829311</v>
       </c>
       <c r="I3">
-        <v>13.32307937797688</v>
+        <v>22.44588244739819</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.86058122597838</v>
+        <v>13.28499069818721</v>
       </c>
       <c r="L3">
-        <v>5.420428351332993</v>
+        <v>9.634373919280852</v>
       </c>
       <c r="M3">
-        <v>15.15802211757567</v>
+        <v>15.9240095914344</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.24658740290069</v>
+        <v>21.18104837733704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.489097623339033</v>
+        <v>10.49914651585468</v>
       </c>
       <c r="D4">
-        <v>4.859462256268862</v>
+        <v>4.944037968147537</v>
       </c>
       <c r="E4">
-        <v>7.824057005490029</v>
+        <v>12.91375020834259</v>
       </c>
       <c r="F4">
-        <v>14.91671641530451</v>
+        <v>23.51920722058831</v>
       </c>
       <c r="G4">
-        <v>17.39122081382295</v>
+        <v>27.38839974761767</v>
       </c>
       <c r="H4">
-        <v>7.991921649700592</v>
+        <v>14.10937777439912</v>
       </c>
       <c r="I4">
-        <v>13.37746200124338</v>
+        <v>22.51981039603819</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.01406406341756</v>
+        <v>12.8857863024522</v>
       </c>
       <c r="L4">
-        <v>5.462397971877357</v>
+        <v>9.656202517535739</v>
       </c>
       <c r="M4">
-        <v>14.55494166173714</v>
+        <v>15.75980406871243</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.36137224145007</v>
+        <v>21.26334872735341</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.417552381712546</v>
+        <v>10.49299088974472</v>
       </c>
       <c r="D5">
-        <v>4.803088266276854</v>
+        <v>4.924478316026326</v>
       </c>
       <c r="E5">
-        <v>7.81385925017259</v>
+        <v>12.92344035219447</v>
       </c>
       <c r="F5">
-        <v>14.90064988403483</v>
+        <v>23.55105857170193</v>
       </c>
       <c r="G5">
-        <v>17.40639609934283</v>
+        <v>27.44289824160862</v>
       </c>
       <c r="H5">
-        <v>8.028188010855434</v>
+        <v>14.12822507385318</v>
       </c>
       <c r="I5">
-        <v>13.40354517301978</v>
+        <v>22.55136876479267</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.65781665520684</v>
+        <v>12.7192438723817</v>
       </c>
       <c r="L5">
-        <v>5.480162487229409</v>
+        <v>9.665422621307247</v>
       </c>
       <c r="M5">
-        <v>14.30219879105353</v>
+        <v>15.69264425397572</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.41194014202113</v>
+        <v>21.29826797289564</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.405661399200541</v>
+        <v>10.49199833139119</v>
       </c>
       <c r="D6">
-        <v>4.793655710364573</v>
+        <v>4.921216311750445</v>
       </c>
       <c r="E6">
-        <v>7.81224880687428</v>
+        <v>12.92508647912508</v>
       </c>
       <c r="F6">
-        <v>14.89829503942525</v>
+        <v>23.55646125558947</v>
       </c>
       <c r="G6">
-        <v>17.40945269674366</v>
+        <v>27.4521155671286</v>
       </c>
       <c r="H6">
-        <v>8.034300866554906</v>
+        <v>14.13139506219845</v>
       </c>
       <c r="I6">
-        <v>13.40810745965288</v>
+        <v>22.55669540524715</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.59798246750437</v>
+        <v>12.69136205945253</v>
       </c>
       <c r="L6">
-        <v>5.483151802648786</v>
+        <v>9.666973240791773</v>
       </c>
       <c r="M6">
-        <v>14.25981414032642</v>
+        <v>15.68147975250795</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.4205595776516</v>
+        <v>21.30414963359932</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.488133546919422</v>
+        <v>10.49906151898606</v>
       </c>
       <c r="D7">
-        <v>4.858706818912243</v>
+        <v>4.943775136627981</v>
       </c>
       <c r="E7">
-        <v>7.823913899805544</v>
+        <v>12.91387840640715</v>
       </c>
       <c r="F7">
-        <v>14.91647862695467</v>
+        <v>23.51962914504923</v>
       </c>
       <c r="G7">
-        <v>17.39138915387069</v>
+        <v>27.38912346630782</v>
       </c>
       <c r="H7">
-        <v>7.992404622078456</v>
+        <v>14.10962924688909</v>
       </c>
       <c r="I7">
-        <v>13.37779814531029</v>
+        <v>22.5202302091156</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.00930519220247</v>
+        <v>12.88355563913669</v>
       </c>
       <c r="L7">
-        <v>5.462634891089972</v>
+        <v>9.656325547510637</v>
       </c>
       <c r="M7">
-        <v>14.5515611425307</v>
+        <v>15.75889922342754</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.36203915273648</v>
+        <v>21.26381407149426</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.849699953771913</v>
+        <v>10.53449551989938</v>
       </c>
       <c r="D8">
-        <v>5.13497975678085</v>
+        <v>5.041171427037754</v>
       </c>
       <c r="E8">
-        <v>7.887630437260496</v>
+        <v>12.86981462577604</v>
       </c>
       <c r="F8">
-        <v>15.04353262763678</v>
+        <v>23.37369756675771</v>
       </c>
       <c r="G8">
-        <v>17.39325685747958</v>
+        <v>27.1356857908474</v>
       </c>
       <c r="H8">
-        <v>7.82115698482388</v>
+        <v>14.01945363048238</v>
       </c>
       <c r="I8">
-        <v>13.27900249540849</v>
+        <v>22.37189935861505</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.72516898559451</v>
+        <v>13.69726007810372</v>
       </c>
       <c r="L8">
-        <v>5.377946975785485</v>
+        <v>9.612189690187254</v>
       </c>
       <c r="M8">
-        <v>15.83365929424982</v>
+        <v>16.09819385468024</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.13769486284745</v>
+        <v>21.09795459659893</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.543618282590385</v>
+        <v>10.61895920834163</v>
       </c>
       <c r="D9">
-        <v>5.635123871229482</v>
+        <v>5.223560570659338</v>
       </c>
       <c r="E9">
-        <v>8.058203094028601</v>
+        <v>12.80283359432352</v>
       </c>
       <c r="F9">
-        <v>15.47187684124071</v>
+        <v>23.14775091428026</v>
       </c>
       <c r="G9">
-        <v>17.72112695476509</v>
+        <v>26.72810040732638</v>
       </c>
       <c r="H9">
-        <v>7.53889221246595</v>
+        <v>13.8637113786235</v>
       </c>
       <c r="I9">
-        <v>13.22386703780953</v>
+        <v>22.126472277103</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.73122471291508</v>
+        <v>15.15877894590271</v>
       </c>
       <c r="L9">
-        <v>5.233987383038308</v>
+        <v>9.535854117136502</v>
       </c>
       <c r="M9">
-        <v>18.18987353846941</v>
+        <v>16.7505156503462</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.83519245789176</v>
+        <v>20.81648354183108</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.039241587970627</v>
+        <v>10.68979308397474</v>
       </c>
       <c r="D10">
-        <v>5.975239708517126</v>
+        <v>5.35158044825927</v>
       </c>
       <c r="E10">
-        <v>8.212575185856759</v>
+        <v>12.76549639300785</v>
       </c>
       <c r="F10">
-        <v>15.90361007671957</v>
+        <v>23.01895273738118</v>
       </c>
       <c r="G10">
-        <v>18.18298571760178</v>
+        <v>26.4842708869674</v>
       </c>
       <c r="H10">
-        <v>7.368999338471018</v>
+        <v>13.76213247963652</v>
       </c>
       <c r="I10">
-        <v>13.27958207635508</v>
+        <v>21.97407103099207</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.72101420410827</v>
+        <v>16.14351063311785</v>
       </c>
       <c r="L10">
-        <v>5.142852134961693</v>
+        <v>9.48597018382878</v>
       </c>
       <c r="M10">
-        <v>19.74754210661846</v>
+        <v>17.2178825334606</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.71208979327489</v>
+        <v>20.63653637581884</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.260781361669174</v>
+        <v>10.72383958555173</v>
       </c>
       <c r="D11">
-        <v>6.123727975111209</v>
+        <v>5.408375644265742</v>
       </c>
       <c r="E11">
-        <v>8.28932176507395</v>
+        <v>12.75109390419187</v>
       </c>
       <c r="F11">
-        <v>16.12659530018982</v>
+        <v>22.96853621751432</v>
       </c>
       <c r="G11">
-        <v>18.4447406163753</v>
+        <v>26.38566184551242</v>
       </c>
       <c r="H11">
-        <v>7.301057932002688</v>
+        <v>13.71870856844906</v>
       </c>
       <c r="I11">
-        <v>13.3282393363004</v>
+        <v>21.9108453853041</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.57900431894231</v>
+        <v>16.57100274041186</v>
       </c>
       <c r="L11">
-        <v>5.104856594257588</v>
+        <v>9.464617252095964</v>
       </c>
       <c r="M11">
-        <v>20.41895851768032</v>
+        <v>17.42712947751824</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.68108946080367</v>
+        <v>20.56054008626154</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.344051240793274</v>
+        <v>10.7369866594004</v>
       </c>
       <c r="D12">
-        <v>6.17904138106079</v>
+        <v>5.429663711300769</v>
       </c>
       <c r="E12">
-        <v>8.319335131787728</v>
+        <v>12.74601165722439</v>
       </c>
       <c r="F12">
-        <v>16.21492070179507</v>
+        <v>22.95062781852732</v>
       </c>
       <c r="G12">
-        <v>18.55149321398271</v>
+        <v>26.35011069630536</v>
       </c>
       <c r="H12">
-        <v>7.276786085673045</v>
+        <v>13.70266550024858</v>
       </c>
       <c r="I12">
-        <v>13.35020515411745</v>
+        <v>21.88778473662091</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.89715477610476</v>
+        <v>16.72986420052029</v>
       </c>
       <c r="L12">
-        <v>5.090993425518482</v>
+        <v>9.456723677108911</v>
       </c>
       <c r="M12">
-        <v>20.66790408752061</v>
+        <v>17.50582057721606</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.6732383682099</v>
+        <v>20.53260856928106</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.326146093868411</v>
+        <v>10.73414401619657</v>
       </c>
       <c r="D13">
-        <v>6.167169652510389</v>
+        <v>5.425088867567583</v>
       </c>
       <c r="E13">
-        <v>8.312828724719967</v>
+        <v>12.74708967615148</v>
       </c>
       <c r="F13">
-        <v>16.19572464676348</v>
+        <v>22.95443196825839</v>
       </c>
       <c r="G13">
-        <v>18.52816018394464</v>
+        <v>26.35768735197786</v>
       </c>
       <c r="H13">
-        <v>7.281946807284504</v>
+        <v>13.70610284110212</v>
       </c>
       <c r="I13">
-        <v>13.34531407139749</v>
+        <v>21.89271199</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.82893506512756</v>
+        <v>16.69578597307081</v>
       </c>
       <c r="L13">
-        <v>5.093955303563047</v>
+        <v>9.458415151114338</v>
       </c>
       <c r="M13">
-        <v>20.6145244600538</v>
+        <v>17.48889830101897</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.6747516396295</v>
+        <v>20.5385864090179</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.267644799820026</v>
+        <v>10.72491615093285</v>
       </c>
       <c r="D14">
-        <v>6.128297095790632</v>
+        <v>5.41013148135055</v>
       </c>
       <c r="E14">
-        <v>8.291771852138949</v>
+        <v>12.75066833450146</v>
       </c>
       <c r="F14">
-        <v>16.13378372238973</v>
+        <v>22.96703912574566</v>
       </c>
       <c r="G14">
-        <v>18.45336933946921</v>
+        <v>26.38270104550956</v>
       </c>
       <c r="H14">
-        <v>7.299031211518154</v>
+        <v>13.71738066537431</v>
       </c>
       <c r="I14">
-        <v>13.32997447985531</v>
+        <v>21.90893048178051</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.60531384906103</v>
+        <v>16.58413330022928</v>
       </c>
       <c r="L14">
-        <v>5.103705379030739</v>
+        <v>9.463963990323206</v>
       </c>
       <c r="M14">
-        <v>20.43954549522547</v>
+        <v>17.4336147371949</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.68036394062405</v>
+        <v>20.55822515495012</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.231728438780271</v>
+        <v>10.71929670825087</v>
       </c>
       <c r="D15">
-        <v>6.104366745261026</v>
+        <v>5.400940786741059</v>
       </c>
       <c r="E15">
-        <v>8.278998131961579</v>
+        <v>12.75290877543115</v>
       </c>
       <c r="F15">
-        <v>16.09635066160796</v>
+        <v>22.9749156905495</v>
       </c>
       <c r="G15">
-        <v>18.40855655137245</v>
+        <v>26.39825634177343</v>
       </c>
       <c r="H15">
-        <v>7.309689032340216</v>
+        <v>13.72434083710206</v>
       </c>
       <c r="I15">
-        <v>13.32104501744223</v>
+        <v>21.91897969625655</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.46746121982553</v>
+        <v>16.51534738397843</v>
       </c>
       <c r="L15">
-        <v>5.109746787006007</v>
+        <v>9.467387851024055</v>
       </c>
       <c r="M15">
-        <v>20.33167621246931</v>
+        <v>17.39967901529825</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.68431670164964</v>
+        <v>20.57036481810651</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.024679306777621</v>
+        <v>10.68760410139537</v>
       </c>
       <c r="D16">
-        <v>5.96540846256597</v>
+        <v>5.347838722268869</v>
       </c>
       <c r="E16">
-        <v>8.207692032729424</v>
+        <v>12.76648962314378</v>
       </c>
       <c r="F16">
-        <v>15.88957829190724</v>
+        <v>23.02241273929462</v>
       </c>
       <c r="G16">
-        <v>18.16693782082566</v>
+        <v>26.49096462806443</v>
       </c>
       <c r="H16">
-        <v>7.373636882939335</v>
+        <v>13.76502638601647</v>
       </c>
       <c r="I16">
-        <v>13.27688760315772</v>
+        <v>21.9783261153909</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.66399576767427</v>
+        <v>16.11515424350383</v>
       </c>
       <c r="L16">
-        <v>5.145407158603565</v>
+        <v>9.487392576438882</v>
       </c>
       <c r="M16">
-        <v>19.70291875299994</v>
+        <v>17.20413467995708</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.71464380938978</v>
+        <v>20.64162118768181</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.896612220997557</v>
+        <v>10.66862336236314</v>
       </c>
       <c r="D17">
-        <v>5.878550465619326</v>
+        <v>5.314884544996044</v>
       </c>
       <c r="E17">
-        <v>8.165628547647477</v>
+        <v>12.77548270122127</v>
       </c>
       <c r="F17">
-        <v>15.76959097739437</v>
+        <v>23.0536499618238</v>
       </c>
       <c r="G17">
-        <v>18.03210919333288</v>
+        <v>26.5510052440698</v>
       </c>
       <c r="H17">
-        <v>7.415336950913066</v>
+        <v>13.7906990252437</v>
       </c>
       <c r="I17">
-        <v>13.25590599663062</v>
+        <v>22.01629906077073</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.15903280472281</v>
+        <v>15.8643471602644</v>
       </c>
       <c r="L17">
-        <v>5.168188888437939</v>
+        <v>9.500007690830044</v>
       </c>
       <c r="M17">
-        <v>19.30770218785465</v>
+        <v>17.08326808546812</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.73985934652856</v>
+        <v>20.6868387419094</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.822585156071582</v>
+        <v>10.65787830414274</v>
       </c>
       <c r="D18">
-        <v>5.82800633465005</v>
+        <v>5.295795139967472</v>
       </c>
       <c r="E18">
-        <v>8.142047967228701</v>
+        <v>12.7808983354799</v>
       </c>
       <c r="F18">
-        <v>15.70307767315541</v>
+        <v>23.07238576074387</v>
       </c>
       <c r="G18">
-        <v>17.95941339883089</v>
+        <v>26.5866965485852</v>
       </c>
       <c r="H18">
-        <v>7.440193885227593</v>
+        <v>13.80572735833427</v>
       </c>
       <c r="I18">
-        <v>13.24602145646184</v>
+        <v>22.03871424703148</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.86414856971524</v>
+        <v>15.71816677655689</v>
       </c>
       <c r="L18">
-        <v>5.181616464229457</v>
+        <v>9.507389670467155</v>
       </c>
       <c r="M18">
-        <v>19.07688223735649</v>
+        <v>17.01343607438026</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.75669795180776</v>
+        <v>20.71339827634297</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.797459898425211</v>
+        <v>10.65427001426601</v>
       </c>
       <c r="D19">
-        <v>5.810793035221893</v>
+        <v>5.289308970157665</v>
       </c>
       <c r="E19">
-        <v>8.134168872923302</v>
+        <v>12.78277370967932</v>
       </c>
       <c r="F19">
-        <v>15.68098458132004</v>
+        <v>23.07886120909161</v>
       </c>
       <c r="G19">
-        <v>17.93562619531246</v>
+        <v>26.59897921171361</v>
       </c>
       <c r="H19">
-        <v>7.448756540498938</v>
+        <v>13.81086070680624</v>
       </c>
       <c r="I19">
-        <v>13.24304386145508</v>
+        <v>22.04640213281293</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.76354194273126</v>
+        <v>15.66834495058116</v>
       </c>
       <c r="L19">
-        <v>5.186217696400574</v>
+        <v>9.509910749088878</v>
       </c>
       <c r="M19">
-        <v>18.99812797641978</v>
+        <v>16.98974040937542</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.76279140764519</v>
+        <v>20.72248550682258</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.91028354222126</v>
+        <v>10.67062613220951</v>
       </c>
       <c r="D20">
-        <v>5.887857422500758</v>
+        <v>5.318406635727599</v>
       </c>
       <c r="E20">
-        <v>8.170042708885305</v>
+        <v>12.77450021497543</v>
       </c>
       <c r="F20">
-        <v>15.78210454990478</v>
+        <v>23.05024506256555</v>
       </c>
       <c r="G20">
-        <v>18.04595785701973</v>
+        <v>26.54449387398175</v>
       </c>
       <c r="H20">
-        <v>7.410806858477587</v>
+        <v>13.78793900045159</v>
       </c>
       <c r="I20">
-        <v>13.25791214555741</v>
+        <v>22.0121973241923</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.2132465945334</v>
+        <v>15.89124560609627</v>
       </c>
       <c r="L20">
-        <v>5.1657300005334</v>
+        <v>9.498651741777936</v>
       </c>
       <c r="M20">
-        <v>19.35013581560994</v>
+        <v>17.09616737414294</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.73693129779528</v>
+        <v>20.68196814244185</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.284845358751639</v>
+        <v>10.72761975867386</v>
       </c>
       <c r="D21">
-        <v>6.139739900838362</v>
+        <v>5.414530863518808</v>
       </c>
       <c r="E21">
-        <v>8.2979308571865</v>
+        <v>12.74960710689249</v>
       </c>
       <c r="F21">
-        <v>16.15187141818924</v>
+        <v>22.96330392521635</v>
       </c>
       <c r="G21">
-        <v>18.47512881275061</v>
+        <v>26.37530518241086</v>
       </c>
       <c r="H21">
-        <v>7.293972645348662</v>
+        <v>13.71405722066009</v>
       </c>
       <c r="I21">
-        <v>13.33438255376347</v>
+        <v>21.90414276126566</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.6711797626704</v>
+        <v>16.61701092381603</v>
       </c>
       <c r="L21">
-        <v>5.100827071393691</v>
+        <v>9.46232894469418</v>
       </c>
       <c r="M21">
-        <v>20.49108469456502</v>
+        <v>17.44986816909086</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.67860760853211</v>
+        <v>20.5524337728802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.525994783507006</v>
+        <v>10.76634734512672</v>
       </c>
       <c r="D22">
-        <v>6.299014963823988</v>
+        <v>5.4760718405204</v>
       </c>
       <c r="E22">
-        <v>8.387061805241657</v>
+        <v>12.73550443969792</v>
       </c>
       <c r="F22">
-        <v>16.41619975602315</v>
+        <v>22.91338302087174</v>
       </c>
       <c r="G22">
-        <v>18.80014763515224</v>
+        <v>26.2751727798355</v>
       </c>
       <c r="H22">
-        <v>7.226161109168551</v>
+        <v>13.66810645577795</v>
       </c>
       <c r="I22">
-        <v>13.40507646214974</v>
+        <v>21.83866294002819</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.58468982245963</v>
+        <v>17.07370766954416</v>
       </c>
       <c r="L22">
-        <v>5.061483264528386</v>
+        <v>9.439710732690855</v>
       </c>
       <c r="M22">
-        <v>21.20585988806073</v>
+        <v>17.67782158652527</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.66328834156873</v>
+        <v>20.47271210185771</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.397639472200009</v>
+        <v>10.74554506782201</v>
       </c>
       <c r="D23">
-        <v>6.214501347341802</v>
+        <v>5.443347266544266</v>
       </c>
       <c r="E23">
-        <v>8.338979331404733</v>
+        <v>12.74283299009679</v>
       </c>
       <c r="F23">
-        <v>16.27303342496963</v>
+        <v>22.93939292226957</v>
       </c>
       <c r="G23">
-        <v>18.6225543814514</v>
+        <v>26.32765341216918</v>
       </c>
       <c r="H23">
-        <v>7.261531707719854</v>
+        <v>13.6924175037928</v>
       </c>
       <c r="I23">
-        <v>13.36539069443644</v>
+        <v>21.8731391167079</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.10071848672734</v>
+        <v>16.83159564745574</v>
       </c>
       <c r="L23">
-        <v>5.08219092395395</v>
+        <v>9.451680039545</v>
       </c>
       <c r="M23">
-        <v>20.82718370428044</v>
+        <v>17.5564722957784</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.66928146308125</v>
+        <v>20.5148081552643</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.904103977987418</v>
+        <v>10.66972015850409</v>
       </c>
       <c r="D24">
-        <v>5.883651640508604</v>
+        <v>5.316814744922548</v>
       </c>
       <c r="E24">
-        <v>8.16804519165286</v>
+        <v>12.77494363265602</v>
       </c>
       <c r="F24">
-        <v>15.77643947834291</v>
+        <v>23.05178199748743</v>
       </c>
       <c r="G24">
-        <v>18.03968188239686</v>
+        <v>26.54743401159164</v>
       </c>
       <c r="H24">
-        <v>7.412852171283338</v>
+        <v>13.78918597039445</v>
       </c>
       <c r="I24">
-        <v>13.25699839582266</v>
+        <v>22.01404990036634</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.18875079040543</v>
+        <v>15.87909100508336</v>
       </c>
       <c r="L24">
-        <v>5.166840637719309</v>
+        <v>9.49926436330237</v>
       </c>
       <c r="M24">
-        <v>19.33096280328863</v>
+        <v>17.09033667301048</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.73824779648304</v>
+        <v>20.6841683858847</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.358066437242611</v>
+        <v>10.59454073471941</v>
       </c>
       <c r="D25">
-        <v>5.504503124735484</v>
+        <v>5.175218596533263</v>
       </c>
       <c r="E25">
-        <v>8.007035617213376</v>
+        <v>12.81887043567937</v>
       </c>
       <c r="F25">
-        <v>15.33591828662103</v>
+        <v>23.20237615235872</v>
       </c>
       <c r="G25">
-        <v>17.59508515498647</v>
+        <v>26.82867555271945</v>
       </c>
       <c r="H25">
-        <v>7.609048552858022</v>
+        <v>13.90358724814936</v>
       </c>
       <c r="I25">
-        <v>13.22272131333172</v>
+        <v>22.18797976566563</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.9564786618846</v>
+        <v>14.77858934296353</v>
       </c>
       <c r="L25">
-        <v>5.270452855549882</v>
+        <v>9.555414221401143</v>
       </c>
       <c r="M25">
-        <v>17.58304516269567</v>
+        <v>16.57585743537433</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.90076644512749</v>
+        <v>20.88792579653446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_213/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.54512200968881</v>
+        <v>7.946851981161281</v>
       </c>
       <c r="D2">
-        <v>5.067007107086827</v>
+        <v>5.207105648294697</v>
       </c>
       <c r="E2">
-        <v>12.85918902245216</v>
+        <v>7.907929513057173</v>
       </c>
       <c r="F2">
-        <v>23.33821417090123</v>
+        <v>15.08974037626318</v>
       </c>
       <c r="G2">
-        <v>27.07302548811116</v>
+        <v>17.41470716919298</v>
       </c>
       <c r="H2">
-        <v>13.99644850093874</v>
+        <v>7.778218589928068</v>
       </c>
       <c r="I2">
-        <v>22.33477718897089</v>
+        <v>13.26117232793217</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.9089731205515</v>
+        <v>21.16584414408156</v>
       </c>
       <c r="L2">
-        <v>9.600923397982324</v>
+        <v>5.356458456473727</v>
       </c>
       <c r="M2">
-        <v>16.18939550126271</v>
+        <v>16.17940176036475</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.0559719092578</v>
+        <v>12.08566346853493</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.51544816081652</v>
+        <v>7.664085526901466</v>
       </c>
       <c r="D3">
-        <v>4.991445194677296</v>
+        <v>4.994823592766798</v>
       </c>
       <c r="E3">
-        <v>12.89147873705386</v>
+        <v>7.852483154314907</v>
       </c>
       <c r="F3">
-        <v>23.44567964130037</v>
+        <v>14.96909062730091</v>
       </c>
       <c r="G3">
-        <v>27.26150722008892</v>
+        <v>17.3764075095579</v>
       </c>
       <c r="H3">
-        <v>14.0647691829311</v>
+        <v>7.906689053918078</v>
       </c>
       <c r="I3">
-        <v>22.44588244739819</v>
+        <v>13.32307937797684</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.28499069818721</v>
+        <v>19.86058122597836</v>
       </c>
       <c r="L3">
-        <v>9.634373919280852</v>
+        <v>5.420428351332932</v>
       </c>
       <c r="M3">
-        <v>15.9240095914344</v>
+        <v>15.15802211757567</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.18104837733704</v>
+        <v>12.24658740290065</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.49914651585468</v>
+        <v>7.48909762333918</v>
       </c>
       <c r="D4">
-        <v>4.944037968147537</v>
+        <v>4.859462256268846</v>
       </c>
       <c r="E4">
-        <v>12.91375020834259</v>
+        <v>7.824057005490085</v>
       </c>
       <c r="F4">
-        <v>23.51920722058831</v>
+        <v>14.91671641530443</v>
       </c>
       <c r="G4">
-        <v>27.38839974761767</v>
+        <v>17.39122081382278</v>
       </c>
       <c r="H4">
-        <v>14.10937777439912</v>
+        <v>7.991921649700591</v>
       </c>
       <c r="I4">
-        <v>22.51981039603819</v>
+        <v>13.37746200124338</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.8857863024522</v>
+        <v>19.01406406341763</v>
       </c>
       <c r="L4">
-        <v>9.656202517535739</v>
+        <v>5.462397971877323</v>
       </c>
       <c r="M4">
-        <v>15.75980406871243</v>
+        <v>14.55494166173714</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.26334872735341</v>
+        <v>12.36137224144995</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.49299088974472</v>
+        <v>7.417552381712521</v>
       </c>
       <c r="D5">
-        <v>4.924478316026326</v>
+        <v>4.803088266276886</v>
       </c>
       <c r="E5">
-        <v>12.92344035219447</v>
+        <v>7.813859250172584</v>
       </c>
       <c r="F5">
-        <v>23.55105857170193</v>
+        <v>14.90064988403494</v>
       </c>
       <c r="G5">
-        <v>27.44289824160862</v>
+        <v>17.40639609934297</v>
       </c>
       <c r="H5">
-        <v>14.12822507385318</v>
+        <v>8.028188010855484</v>
       </c>
       <c r="I5">
-        <v>22.55136876479267</v>
+        <v>13.40354517301988</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.7192438723817</v>
+        <v>18.6578166552068</v>
       </c>
       <c r="L5">
-        <v>9.665422621307247</v>
+        <v>5.480162487229439</v>
       </c>
       <c r="M5">
-        <v>15.69264425397572</v>
+        <v>14.30219879105355</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.29826797289564</v>
+        <v>12.41194014202125</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.49199833139119</v>
+        <v>7.405661399200611</v>
       </c>
       <c r="D6">
-        <v>4.921216311750445</v>
+        <v>4.793655710364422</v>
       </c>
       <c r="E6">
-        <v>12.92508647912508</v>
+        <v>7.812248806874283</v>
       </c>
       <c r="F6">
-        <v>23.55646125558947</v>
+        <v>14.89829503942535</v>
       </c>
       <c r="G6">
-        <v>27.4521155671286</v>
+        <v>17.40945269674372</v>
       </c>
       <c r="H6">
-        <v>14.13139506219845</v>
+        <v>8.034300866554899</v>
       </c>
       <c r="I6">
-        <v>22.55669540524715</v>
+        <v>13.40810745965294</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.69136205945253</v>
+        <v>18.59798246750438</v>
       </c>
       <c r="L6">
-        <v>9.666973240791773</v>
+        <v>5.483151802648754</v>
       </c>
       <c r="M6">
-        <v>15.68147975250795</v>
+        <v>14.25981414032642</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.30414963359932</v>
+        <v>12.42055957765164</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.49906151898606</v>
+        <v>7.488133546919422</v>
       </c>
       <c r="D7">
-        <v>4.943775136627981</v>
+        <v>4.858706818912293</v>
       </c>
       <c r="E7">
-        <v>12.91387840640715</v>
+        <v>7.823913899805481</v>
       </c>
       <c r="F7">
-        <v>23.51962914504923</v>
+        <v>14.91647862695462</v>
       </c>
       <c r="G7">
-        <v>27.38912346630782</v>
+        <v>17.39138915387058</v>
       </c>
       <c r="H7">
-        <v>14.10962924688909</v>
+        <v>7.992404622078399</v>
       </c>
       <c r="I7">
-        <v>22.5202302091156</v>
+        <v>13.37779814531026</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.88355563913669</v>
+        <v>19.00930519220245</v>
       </c>
       <c r="L7">
-        <v>9.656325547510637</v>
+        <v>5.462634891089969</v>
       </c>
       <c r="M7">
-        <v>15.75889922342754</v>
+        <v>14.5515611425307</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.26381407149426</v>
+        <v>12.36203915273645</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.53449551989938</v>
+        <v>7.849699953772</v>
       </c>
       <c r="D8">
-        <v>5.041171427037754</v>
+        <v>5.134979756780873</v>
       </c>
       <c r="E8">
-        <v>12.86981462577604</v>
+        <v>7.887630437260597</v>
       </c>
       <c r="F8">
-        <v>23.37369756675771</v>
+        <v>15.04353262763662</v>
       </c>
       <c r="G8">
-        <v>27.1356857908474</v>
+        <v>17.39325685747927</v>
       </c>
       <c r="H8">
-        <v>14.01945363048238</v>
+        <v>7.82115698482383</v>
       </c>
       <c r="I8">
-        <v>22.37189935861505</v>
+        <v>13.27900249540835</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.69726007810372</v>
+        <v>20.72516898559455</v>
       </c>
       <c r="L8">
-        <v>9.612189690187254</v>
+        <v>5.377946975785605</v>
       </c>
       <c r="M8">
-        <v>16.09819385468024</v>
+        <v>15.83365929424983</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.09795459659893</v>
+        <v>12.1376948628473</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.61895920834163</v>
+        <v>8.543618282590385</v>
       </c>
       <c r="D9">
-        <v>5.223560570659338</v>
+        <v>5.635123871229507</v>
       </c>
       <c r="E9">
-        <v>12.80283359432352</v>
+        <v>8.058203094028595</v>
       </c>
       <c r="F9">
-        <v>23.14775091428026</v>
+        <v>15.47187684124071</v>
       </c>
       <c r="G9">
-        <v>26.72810040732638</v>
+        <v>17.72112695476516</v>
       </c>
       <c r="H9">
-        <v>13.8637113786235</v>
+        <v>7.538892212465963</v>
       </c>
       <c r="I9">
-        <v>22.126472277103</v>
+        <v>13.22386703780956</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.15877894590271</v>
+        <v>23.73122471291508</v>
       </c>
       <c r="L9">
-        <v>9.535854117136502</v>
+        <v>5.233987383038223</v>
       </c>
       <c r="M9">
-        <v>16.7505156503462</v>
+        <v>18.18987353846942</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.81648354183108</v>
+        <v>11.83519245789178</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.68979308397474</v>
+        <v>9.039241587970604</v>
       </c>
       <c r="D10">
-        <v>5.35158044825927</v>
+        <v>5.975239708517177</v>
       </c>
       <c r="E10">
-        <v>12.76549639300785</v>
+        <v>8.212575185856725</v>
       </c>
       <c r="F10">
-        <v>23.01895273738118</v>
+        <v>15.90361007671953</v>
       </c>
       <c r="G10">
-        <v>26.4842708869674</v>
+        <v>18.18298571760178</v>
       </c>
       <c r="H10">
-        <v>13.76213247963652</v>
+        <v>7.368999338471018</v>
       </c>
       <c r="I10">
-        <v>21.97407103099207</v>
+        <v>13.27958207635504</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.14351063311785</v>
+        <v>25.72101420410827</v>
       </c>
       <c r="L10">
-        <v>9.48597018382878</v>
+        <v>5.142852134961694</v>
       </c>
       <c r="M10">
-        <v>17.2178825334606</v>
+        <v>19.74754210661848</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.63653637581884</v>
+        <v>11.71208979327489</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.72383958555173</v>
+        <v>9.260781361669226</v>
       </c>
       <c r="D11">
-        <v>5.408375644265742</v>
+        <v>6.123727975111269</v>
       </c>
       <c r="E11">
-        <v>12.75109390419187</v>
+        <v>8.289321765074021</v>
       </c>
       <c r="F11">
-        <v>22.96853621751432</v>
+        <v>16.12659530018975</v>
       </c>
       <c r="G11">
-        <v>26.38566184551242</v>
+        <v>18.44474061637518</v>
       </c>
       <c r="H11">
-        <v>13.71870856844906</v>
+        <v>7.30105793200264</v>
       </c>
       <c r="I11">
-        <v>21.9108453853041</v>
+        <v>13.32823933630035</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.57100274041186</v>
+        <v>26.57900431894236</v>
       </c>
       <c r="L11">
-        <v>9.464617252095964</v>
+        <v>5.104856594257644</v>
       </c>
       <c r="M11">
-        <v>17.42712947751824</v>
+        <v>20.41895851768033</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.56054008626154</v>
+        <v>11.68108946080357</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.7369866594004</v>
+        <v>9.344051240793258</v>
       </c>
       <c r="D12">
-        <v>5.429663711300769</v>
+        <v>6.179041381060818</v>
       </c>
       <c r="E12">
-        <v>12.74601165722439</v>
+        <v>8.319335131787692</v>
       </c>
       <c r="F12">
-        <v>22.95062781852732</v>
+        <v>16.21492070179505</v>
       </c>
       <c r="G12">
-        <v>26.35011069630536</v>
+        <v>18.55149321398272</v>
       </c>
       <c r="H12">
-        <v>13.70266550024858</v>
+        <v>7.276786085673051</v>
       </c>
       <c r="I12">
-        <v>21.88778473662091</v>
+        <v>13.35020515411746</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.72986420052029</v>
+        <v>26.89715477610475</v>
       </c>
       <c r="L12">
-        <v>9.456723677108911</v>
+        <v>5.090993425518427</v>
       </c>
       <c r="M12">
-        <v>17.50582057721606</v>
+        <v>20.66790408752061</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.53260856928106</v>
+        <v>11.67323836820991</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.73414401619657</v>
+        <v>9.326146093868379</v>
       </c>
       <c r="D13">
-        <v>5.425088867567583</v>
+        <v>6.167169652510419</v>
       </c>
       <c r="E13">
-        <v>12.74708967615148</v>
+        <v>8.312828724720015</v>
       </c>
       <c r="F13">
-        <v>22.95443196825839</v>
+        <v>16.19572464676353</v>
       </c>
       <c r="G13">
-        <v>26.35768735197786</v>
+        <v>18.52816018394468</v>
       </c>
       <c r="H13">
-        <v>13.70610284110212</v>
+        <v>7.281946807284513</v>
       </c>
       <c r="I13">
-        <v>21.89271199</v>
+        <v>13.34531407139747</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.69578597307081</v>
+        <v>26.82893506512757</v>
       </c>
       <c r="L13">
-        <v>9.458415151114338</v>
+        <v>5.093955303563107</v>
       </c>
       <c r="M13">
-        <v>17.48889830101897</v>
+        <v>20.61452446005378</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.5385864090179</v>
+        <v>11.67475163962949</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.72491615093285</v>
+        <v>9.26764479982004</v>
       </c>
       <c r="D14">
-        <v>5.41013148135055</v>
+        <v>6.128297095790662</v>
       </c>
       <c r="E14">
-        <v>12.75066833450146</v>
+        <v>8.291771852138957</v>
       </c>
       <c r="F14">
-        <v>22.96703912574566</v>
+        <v>16.13378372238966</v>
       </c>
       <c r="G14">
-        <v>26.38270104550956</v>
+        <v>18.45336933946914</v>
       </c>
       <c r="H14">
-        <v>13.71738066537431</v>
+        <v>7.299031211518107</v>
       </c>
       <c r="I14">
-        <v>21.90893048178051</v>
+        <v>13.32997447985526</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.58413330022928</v>
+        <v>26.60531384906103</v>
       </c>
       <c r="L14">
-        <v>9.463963990323206</v>
+        <v>5.103705379030711</v>
       </c>
       <c r="M14">
-        <v>17.4336147371949</v>
+        <v>20.43954549522547</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.55822515495012</v>
+        <v>11.68036394062399</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.71929670825087</v>
+        <v>9.231728438780287</v>
       </c>
       <c r="D15">
-        <v>5.400940786741059</v>
+        <v>6.104366745261049</v>
       </c>
       <c r="E15">
-        <v>12.75290877543115</v>
+        <v>8.278998131961551</v>
       </c>
       <c r="F15">
-        <v>22.9749156905495</v>
+        <v>16.09635066160795</v>
       </c>
       <c r="G15">
-        <v>26.39825634177343</v>
+        <v>18.40855655137253</v>
       </c>
       <c r="H15">
-        <v>13.72434083710206</v>
+        <v>7.309689032340165</v>
       </c>
       <c r="I15">
-        <v>21.91897969625655</v>
+        <v>13.32104501744226</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.51534738397843</v>
+        <v>26.46746121982553</v>
       </c>
       <c r="L15">
-        <v>9.467387851024055</v>
+        <v>5.109746787005986</v>
       </c>
       <c r="M15">
-        <v>17.39967901529825</v>
+        <v>20.33167621246933</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.57036481810651</v>
+        <v>11.68431670164965</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.68760410139537</v>
+        <v>9.024679306777584</v>
       </c>
       <c r="D16">
-        <v>5.347838722268869</v>
+        <v>5.965408462566168</v>
       </c>
       <c r="E16">
-        <v>12.76648962314378</v>
+        <v>8.207692032729343</v>
       </c>
       <c r="F16">
-        <v>23.02241273929462</v>
+        <v>15.88957829190722</v>
       </c>
       <c r="G16">
-        <v>26.49096462806443</v>
+        <v>18.16693782082567</v>
       </c>
       <c r="H16">
-        <v>13.76502638601647</v>
+        <v>7.373636882939373</v>
       </c>
       <c r="I16">
-        <v>21.9783261153909</v>
+        <v>13.27688760315772</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.11515424350383</v>
+        <v>25.66399576767425</v>
       </c>
       <c r="L16">
-        <v>9.487392576438882</v>
+        <v>5.145407158603597</v>
       </c>
       <c r="M16">
-        <v>17.20413467995708</v>
+        <v>19.70291875299994</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.64162118768181</v>
+        <v>11.71464380938982</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.66862336236314</v>
+        <v>8.896612220997557</v>
       </c>
       <c r="D17">
-        <v>5.314884544996044</v>
+        <v>5.878550465619294</v>
       </c>
       <c r="E17">
-        <v>12.77548270122127</v>
+        <v>8.165628547647533</v>
       </c>
       <c r="F17">
-        <v>23.0536499618238</v>
+        <v>15.76959097739442</v>
       </c>
       <c r="G17">
-        <v>26.5510052440698</v>
+        <v>18.03210919333284</v>
       </c>
       <c r="H17">
-        <v>13.7906990252437</v>
+        <v>7.415336950913078</v>
       </c>
       <c r="I17">
-        <v>22.01629906077073</v>
+        <v>13.25590599663063</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.8643471602644</v>
+        <v>25.15903280472281</v>
       </c>
       <c r="L17">
-        <v>9.500007690830044</v>
+        <v>5.168188888437943</v>
       </c>
       <c r="M17">
-        <v>17.08326808546812</v>
+        <v>19.30770218785466</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.6868387419094</v>
+        <v>11.73985934652855</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.65787830414274</v>
+        <v>8.822585156071542</v>
       </c>
       <c r="D18">
-        <v>5.295795139967472</v>
+        <v>5.828006334650064</v>
       </c>
       <c r="E18">
-        <v>12.7808983354799</v>
+        <v>8.142047967228713</v>
       </c>
       <c r="F18">
-        <v>23.07238576074387</v>
+        <v>15.70307767315539</v>
       </c>
       <c r="G18">
-        <v>26.5866965485852</v>
+        <v>17.95941339883083</v>
       </c>
       <c r="H18">
-        <v>13.80572735833427</v>
+        <v>7.440193885227599</v>
       </c>
       <c r="I18">
-        <v>22.03871424703148</v>
+        <v>13.24602145646179</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.71816677655689</v>
+        <v>24.86414856971522</v>
       </c>
       <c r="L18">
-        <v>9.507389670467155</v>
+        <v>5.181616464229512</v>
       </c>
       <c r="M18">
-        <v>17.01343607438026</v>
+        <v>19.07688223735651</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.71339827634297</v>
+        <v>11.75669795180774</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.65427001426601</v>
+        <v>8.797459898425164</v>
       </c>
       <c r="D19">
-        <v>5.289308970157665</v>
+        <v>5.810793035221909</v>
       </c>
       <c r="E19">
-        <v>12.78277370967932</v>
+        <v>8.13416887292334</v>
       </c>
       <c r="F19">
-        <v>23.07886120909161</v>
+        <v>15.68098458131993</v>
       </c>
       <c r="G19">
-        <v>26.59897921171361</v>
+        <v>17.93562619531232</v>
       </c>
       <c r="H19">
-        <v>13.81086070680624</v>
+        <v>7.448756540498831</v>
       </c>
       <c r="I19">
-        <v>22.04640213281293</v>
+        <v>13.24304386145497</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.66834495058116</v>
+        <v>24.76354194273133</v>
       </c>
       <c r="L19">
-        <v>9.509910749088878</v>
+        <v>5.186217696400573</v>
       </c>
       <c r="M19">
-        <v>16.98974040937542</v>
+        <v>18.99812797641982</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.72248550682258</v>
+        <v>11.76279140764503</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.67062613220951</v>
+        <v>8.910283542221276</v>
       </c>
       <c r="D20">
-        <v>5.318406635727599</v>
+        <v>5.887857422500725</v>
       </c>
       <c r="E20">
-        <v>12.77450021497543</v>
+        <v>8.170042708885381</v>
       </c>
       <c r="F20">
-        <v>23.05024506256555</v>
+        <v>15.78210454990486</v>
       </c>
       <c r="G20">
-        <v>26.54449387398175</v>
+        <v>18.04595785701996</v>
       </c>
       <c r="H20">
-        <v>13.78793900045159</v>
+        <v>7.410806858477689</v>
       </c>
       <c r="I20">
-        <v>22.0121973241923</v>
+        <v>13.25791214555754</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.89124560609627</v>
+        <v>25.21324659453337</v>
       </c>
       <c r="L20">
-        <v>9.498651741777936</v>
+        <v>5.165730000533483</v>
       </c>
       <c r="M20">
-        <v>17.09616737414294</v>
+        <v>19.35013581560989</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.68196814244185</v>
+        <v>11.73693129779541</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.72761975867386</v>
+        <v>9.284845358751724</v>
       </c>
       <c r="D21">
-        <v>5.414530863518808</v>
+        <v>6.139739900838405</v>
       </c>
       <c r="E21">
-        <v>12.74960710689249</v>
+        <v>8.297930857186575</v>
       </c>
       <c r="F21">
-        <v>22.96330392521635</v>
+        <v>16.15187141818915</v>
       </c>
       <c r="G21">
-        <v>26.37530518241086</v>
+        <v>18.47512881275063</v>
       </c>
       <c r="H21">
-        <v>13.71405722066009</v>
+        <v>7.293972645348598</v>
       </c>
       <c r="I21">
-        <v>21.90414276126566</v>
+        <v>13.33438255376346</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.61701092381603</v>
+        <v>26.67117976267044</v>
       </c>
       <c r="L21">
-        <v>9.46232894469418</v>
+        <v>5.100827071393635</v>
       </c>
       <c r="M21">
-        <v>17.44986816909086</v>
+        <v>20.49108469456503</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.5524337728802</v>
+        <v>11.67860760853202</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.76634734512672</v>
+        <v>9.525994783507052</v>
       </c>
       <c r="D22">
-        <v>5.4760718405204</v>
+        <v>6.299014963823983</v>
       </c>
       <c r="E22">
-        <v>12.73550443969792</v>
+        <v>8.387061805241641</v>
       </c>
       <c r="F22">
-        <v>22.91338302087174</v>
+        <v>16.41619975602317</v>
       </c>
       <c r="G22">
-        <v>26.2751727798355</v>
+        <v>18.80014763515229</v>
       </c>
       <c r="H22">
-        <v>13.66810645577795</v>
+        <v>7.226161109168558</v>
       </c>
       <c r="I22">
-        <v>21.83866294002819</v>
+        <v>13.40507646214976</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.07370766954416</v>
+        <v>27.58468982245962</v>
       </c>
       <c r="L22">
-        <v>9.439710732690855</v>
+        <v>5.061483264528352</v>
       </c>
       <c r="M22">
-        <v>17.67782158652527</v>
+        <v>21.20585988806073</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.47271210185771</v>
+        <v>11.66328834156874</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.74554506782201</v>
+        <v>9.397639472200025</v>
       </c>
       <c r="D23">
-        <v>5.443347266544266</v>
+        <v>6.214501347341813</v>
       </c>
       <c r="E23">
-        <v>12.74283299009679</v>
+        <v>8.338979331404781</v>
       </c>
       <c r="F23">
-        <v>22.93939292226957</v>
+        <v>16.27303342496971</v>
       </c>
       <c r="G23">
-        <v>26.32765341216918</v>
+        <v>18.62255438145151</v>
       </c>
       <c r="H23">
-        <v>13.6924175037928</v>
+        <v>7.261531707719901</v>
       </c>
       <c r="I23">
-        <v>21.8731391167079</v>
+        <v>13.36539069443654</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.83159564745574</v>
+        <v>27.10071848672732</v>
       </c>
       <c r="L23">
-        <v>9.451680039545</v>
+        <v>5.08219092395393</v>
       </c>
       <c r="M23">
-        <v>17.5564722957784</v>
+        <v>20.82718370428042</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.5148081552643</v>
+        <v>11.66928146308132</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.66972015850409</v>
+        <v>8.904103977987477</v>
       </c>
       <c r="D24">
-        <v>5.316814744922548</v>
+        <v>5.883651640508693</v>
       </c>
       <c r="E24">
-        <v>12.77494363265602</v>
+        <v>8.168045191652938</v>
       </c>
       <c r="F24">
-        <v>23.05178199748743</v>
+        <v>15.77643947834281</v>
       </c>
       <c r="G24">
-        <v>26.54743401159164</v>
+        <v>18.03968188239683</v>
       </c>
       <c r="H24">
-        <v>13.78918597039445</v>
+        <v>7.412852171283285</v>
       </c>
       <c r="I24">
-        <v>22.01404990036634</v>
+        <v>13.25699839582265</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.87909100508336</v>
+        <v>25.18875079040547</v>
       </c>
       <c r="L24">
-        <v>9.49926436330237</v>
+        <v>5.166840637719341</v>
       </c>
       <c r="M24">
-        <v>17.09033667301048</v>
+        <v>19.33096280328862</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.6841683858847</v>
+        <v>11.73824779648299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.59454073471941</v>
+        <v>8.358066437242545</v>
       </c>
       <c r="D25">
-        <v>5.175218596533263</v>
+        <v>5.504503124735483</v>
       </c>
       <c r="E25">
-        <v>12.81887043567937</v>
+        <v>8.007035617213338</v>
       </c>
       <c r="F25">
-        <v>23.20237615235872</v>
+        <v>15.33591828662103</v>
       </c>
       <c r="G25">
-        <v>26.82867555271945</v>
+        <v>17.59508515498659</v>
       </c>
       <c r="H25">
-        <v>13.90358724814936</v>
+        <v>7.609048552858022</v>
       </c>
       <c r="I25">
-        <v>22.18797976566563</v>
+        <v>13.22272131333171</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.77858934296353</v>
+        <v>22.9564786618846</v>
       </c>
       <c r="L25">
-        <v>9.555414221401143</v>
+        <v>5.270452855549881</v>
       </c>
       <c r="M25">
-        <v>16.57585743537433</v>
+        <v>17.58304516269567</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.88792579653446</v>
+        <v>11.9007664451275</v>
       </c>
     </row>
   </sheetData>
